--- a/各个子模块/模型模块/月份/多输入_随机月份_标准化.xlsx
+++ b/各个子模块/模型模块/月份/多输入_随机月份_标准化.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:11">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -403,230 +403,110 @@
       <c r="K1" s="1">
         <v>9</v>
       </c>
-      <c r="L1" s="1">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.37182670320936</v>
+        <v>16.71582658236548</v>
       </c>
       <c r="C2">
-        <v>23.8269616646266</v>
+        <v>20.66733067753403</v>
       </c>
       <c r="D2">
-        <v>20.64798004353449</v>
+        <v>20.08209036969096</v>
       </c>
       <c r="E2">
-        <v>19.95691078720198</v>
+        <v>12.08142271648433</v>
       </c>
       <c r="F2">
-        <v>22.6444188604279</v>
+        <v>15.17983625194633</v>
       </c>
       <c r="G2">
-        <v>28.75237345760682</v>
+        <v>14.22251302268917</v>
       </c>
       <c r="H2">
-        <v>13.72457769014752</v>
+        <v>14.27176288380199</v>
       </c>
       <c r="I2">
-        <v>13.13242669464308</v>
+        <v>12.37987847856676</v>
       </c>
       <c r="J2">
-        <v>16.65292659593643</v>
+        <v>18.1518582321034</v>
       </c>
       <c r="K2">
-        <v>19.88930940176124</v>
-      </c>
-      <c r="L2">
-        <v>15.62822168315199</v>
-      </c>
-      <c r="M2">
-        <v>32.54170596375911</v>
-      </c>
-      <c r="N2">
-        <v>18.38317433068035</v>
-      </c>
-      <c r="O2">
-        <v>13.81435921141647</v>
-      </c>
-      <c r="P2">
-        <v>23.63264606372864</v>
-      </c>
-      <c r="Q2">
-        <v>17.42235516624763</v>
-      </c>
-      <c r="R2">
-        <v>24.99006570688827</v>
-      </c>
-      <c r="S2">
-        <v>19.49573132629395</v>
-      </c>
-      <c r="T2">
-        <v>21.11815936960216</v>
-      </c>
-      <c r="U2">
-        <v>11.68463255465917</v>
+        <v>18.2544285849258</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6222709971814064</v>
+        <v>0.6900358640109305</v>
       </c>
       <c r="C3">
-        <v>0.4041916656276386</v>
+        <v>0.4398589408399652</v>
       </c>
       <c r="D3">
-        <v>0.8197748368494758</v>
+        <v>0.5906641579942301</v>
       </c>
       <c r="E3">
-        <v>0.4011271203105754</v>
+        <v>0.6109852013206726</v>
       </c>
       <c r="F3">
-        <v>0.5519100156810191</v>
+        <v>0.4355680783472313</v>
       </c>
       <c r="G3">
-        <v>0.6672415600422098</v>
+        <v>0.4692232571177696</v>
       </c>
       <c r="H3">
-        <v>0.5543527565134644</v>
+        <v>0.4547926736135449</v>
       </c>
       <c r="I3">
-        <v>0.4694269289133572</v>
+        <v>0.5076319081955514</v>
       </c>
       <c r="J3">
-        <v>0.563411649502623</v>
+        <v>0.4990871169585621</v>
       </c>
       <c r="K3">
-        <v>0.4671225744464705</v>
-      </c>
-      <c r="L3">
-        <v>0.610851065978907</v>
-      </c>
-      <c r="M3">
-        <v>0.5904018582464698</v>
-      </c>
-      <c r="N3">
-        <v>0.676950849919803</v>
-      </c>
-      <c r="O3">
-        <v>0.5644272180126216</v>
-      </c>
-      <c r="P3">
-        <v>0.5831339387069158</v>
-      </c>
-      <c r="Q3">
-        <v>0.4716824351706154</v>
-      </c>
-      <c r="R3">
-        <v>0.5712784625790492</v>
-      </c>
-      <c r="S3">
-        <v>0.3632662578986798</v>
-      </c>
-      <c r="T3">
-        <v>0.5098732768218698</v>
-      </c>
-      <c r="U3">
-        <v>0.5093049644548567</v>
+        <v>0.5740347887608502</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>910.8097280385898</v>
+        <v>533.7812923978233</v>
       </c>
       <c r="C4">
-        <v>1520.821347342013</v>
+        <v>1064.688992853077</v>
       </c>
       <c r="D4">
-        <v>835.4090772736481</v>
+        <v>812.9907749581605</v>
       </c>
       <c r="E4">
-        <v>800.4087300038127</v>
+        <v>227.0423188690113</v>
       </c>
       <c r="F4">
-        <v>1158.184291262221</v>
+        <v>466.3387012258885</v>
       </c>
       <c r="G4">
-        <v>1537.296395586644</v>
+        <v>452.2921061042961</v>
       </c>
       <c r="H4">
-        <v>401.4855449749745</v>
+        <v>419.6437831928601</v>
       </c>
       <c r="I4">
-        <v>397.0404977229632</v>
+        <v>265.3646093342727</v>
       </c>
       <c r="J4">
-        <v>727.3760023354456</v>
+        <v>866.6479288339622</v>
       </c>
       <c r="K4">
-        <v>1045.264018908832</v>
-      </c>
-      <c r="L4">
-        <v>670.5497004998799</v>
-      </c>
-      <c r="M4">
-        <v>1920.272778436736</v>
-      </c>
-      <c r="N4">
-        <v>624.8921412104839</v>
-      </c>
-      <c r="O4">
-        <v>399.4895591611314</v>
-      </c>
-      <c r="P4">
-        <v>1204.198556386476</v>
-      </c>
-      <c r="Q4">
-        <v>645.9122717335929</v>
-      </c>
-      <c r="R4">
-        <v>1270.274307106543</v>
-      </c>
-      <c r="S4">
-        <v>874.6008592253955</v>
-      </c>
-      <c r="T4">
-        <v>1262.078464721329</v>
-      </c>
-      <c r="U4">
-        <v>232.6628919350549</v>
+        <v>646.3877186173447</v>
       </c>
     </row>
   </sheetData>
